--- a/ope.ed.gov/2007/criminal-offenses-noncampus-virginia-colleges-and-universities-crime-2007.xlsx
+++ b/ope.ed.gov/2007/criminal-offenses-noncampus-virginia-colleges-and-universities-crime-2007.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Criminal_Offenses_Noncampus" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="criminal-offenses-noncampus-vir" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - Noncampus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -457,52 +454,94 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2007.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="F2">
+        <v>1007.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>3.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -510,19 +549,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B3">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F3">
-        <v>1007.0</v>
+        <v>865.0</v>
       </c>
       <c s="1" r="G3">
         <v>0.0</v>
@@ -543,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M3">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N3">
         <v>0.0</v>
@@ -557,19 +596,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B4">
-        <v>231420.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D4">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F4">
-        <v>865.0</v>
+        <v>1677.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -584,7 +623,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L4">
         <v>0.0</v>
@@ -607,13 +646,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F5">
         <v>1677.0</v>
@@ -631,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L5">
         <v>0.0</v>
@@ -654,13 +693,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F6">
         <v>1677.0</v>
@@ -698,19 +737,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B7">
-        <v>449931.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D7">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F7">
-        <v>1677.0</v>
+        <v>4084.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -745,19 +784,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B8">
-        <v>231536.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D8">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F8">
-        <v>4084.0</v>
+        <v>1541.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
@@ -792,19 +831,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B9">
-        <v>231581.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F9">
-        <v>1541.0</v>
+        <v>516.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -839,19 +878,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B10">
-        <v>231828.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F10">
-        <v>516.0</v>
+        <v>4884.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
@@ -886,19 +925,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B11">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D11">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F11">
-        <v>4884.0</v>
+        <v>7795.0</v>
       </c>
       <c s="1" r="G11">
         <v>0.0</v>
@@ -933,19 +972,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B12">
-        <v>231624.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D12">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F12">
-        <v>7795.0</v>
+        <v>4016.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
@@ -980,19 +1019,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B13">
-        <v>231882.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D13">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F13">
-        <v>4016.0</v>
+        <v>725.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
@@ -1027,19 +1066,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B14">
-        <v>231970.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F14">
-        <v>725.0</v>
+        <v>645.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -1074,19 +1113,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B15">
-        <v>442806.0</v>
+        <v>442310.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F15">
-        <v>645.0</v>
+        <v>259.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -1095,22 +1134,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I15">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J15">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="K15">
         <v>0.0</v>
       </c>
       <c s="1" r="L15">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M15">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N15">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="O15">
         <v>0.0</v>
@@ -1121,19 +1160,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B16">
-        <v>442310.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F16">
-        <v>259.0</v>
+        <v>1233.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -1142,22 +1181,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I16">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J16">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="K16">
         <v>0.0</v>
       </c>
       <c s="1" r="L16">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M16">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N16">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O16">
         <v>0.0</v>
@@ -1168,19 +1207,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B17">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F17">
-        <v>1233.0</v>
+        <v>30276.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -1215,19 +1254,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B18">
-        <v>232186.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F18">
-        <v>30276.0</v>
+        <v>1122.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -1248,7 +1287,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M18">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N18">
         <v>0.0</v>
@@ -1262,19 +1301,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B19">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F19">
-        <v>1122.0</v>
+        <v>5658.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -1292,13 +1331,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L19">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M19">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="N19">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O19">
         <v>0.0</v>
@@ -1309,19 +1348,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B20">
-        <v>232265.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F20">
-        <v>5658.0</v>
+        <v>17918.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -1330,7 +1369,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I20">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c s="1" r="J20">
         <v>0.0</v>
@@ -1339,13 +1378,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L20">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M20">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="N20">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O20">
         <v>0.0</v>
@@ -1356,19 +1395,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B21">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F21">
-        <v>17918.0</v>
+        <v>971.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -1377,7 +1416,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I21">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J21">
         <v>0.0</v>
@@ -1389,7 +1428,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M21">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N21">
         <v>0.0</v>
@@ -1403,19 +1442,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B22">
-        <v>231837.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F22">
-        <v>971.0</v>
+        <v>27068.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -1436,7 +1475,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M22">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N22">
         <v>0.0</v>
@@ -1450,19 +1489,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F23">
-        <v>27068.0</v>
+        <v>4727.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -1483,7 +1522,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M23">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N23">
         <v>0.0</v>
@@ -1497,19 +1536,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F24">
-        <v>4727.0</v>
+        <v>5655.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -1544,19 +1583,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B25">
-        <v>232575.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F25">
-        <v>5655.0</v>
+        <v>3609.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -1591,19 +1630,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B26">
-        <v>232706.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F26">
-        <v>3609.0</v>
+        <v>3017.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -1638,19 +1677,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B27">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F27">
-        <v>3017.0</v>
+        <v>4586.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -1685,19 +1724,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B28">
-        <v>232867.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F28">
-        <v>4586.0</v>
+        <v>6155.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -1732,19 +1771,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B29">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F29">
-        <v>6155.0</v>
+        <v>41266.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -1782,13 +1821,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D30">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F30">
         <v>41266.0</v>
@@ -1829,13 +1868,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D31">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F31">
         <v>41266.0</v>
@@ -1847,7 +1886,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I31">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J31">
         <v>0.0</v>
@@ -1876,13 +1915,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D32">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F32">
         <v>41266.0</v>
@@ -1894,7 +1933,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I32">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J32">
         <v>0.0</v>
@@ -1923,13 +1962,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D33">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F33">
         <v>41266.0</v>
@@ -1970,13 +2009,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D34">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F34">
         <v>41266.0</v>
@@ -2014,19 +2053,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B35">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D35">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F35">
-        <v>41266.0</v>
+        <v>22287.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -2061,19 +2100,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B36">
-        <v>232982.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F36">
-        <v>22287.0</v>
+        <v>4674.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -2108,19 +2147,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B37">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F37">
-        <v>4674.0</v>
+        <v>9122.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -2155,19 +2194,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B38">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F38">
-        <v>9122.0</v>
+        <v>656.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -2188,7 +2227,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M38">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N38">
         <v>0.0</v>
@@ -2202,19 +2241,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B39">
-        <v>233301.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F39">
-        <v>656.0</v>
+        <v>3393.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -2223,7 +2262,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I39">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J39">
         <v>0.0</v>
@@ -2235,7 +2274,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M39">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N39">
         <v>0.0</v>
@@ -2249,19 +2288,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B40">
-        <v>233541.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F40">
-        <v>3393.0</v>
+        <v>5255.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -2270,7 +2309,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I40">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J40">
         <v>0.0</v>
@@ -2282,7 +2321,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M40">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N40">
         <v>0.0</v>
@@ -2296,19 +2335,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B41">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F41">
-        <v>5255.0</v>
+        <v>3716.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -2343,19 +2382,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B42">
-        <v>233648.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D42">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F42">
-        <v>3716.0</v>
+        <v>1648.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -2370,16 +2409,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K42">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L42">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M42">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="N42">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="O42">
         <v>0.0</v>
@@ -2390,19 +2429,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B43">
-        <v>440341.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F43">
-        <v>1648.0</v>
+        <v>9368.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -2417,16 +2456,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K43">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L43">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M43">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N43">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O43">
         <v>0.0</v>
@@ -2437,19 +2476,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B44">
-        <v>233754.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F44">
-        <v>9368.0</v>
+        <v>5001.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -2467,7 +2506,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L44">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M44">
         <v>0.0</v>
@@ -2484,19 +2523,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B45">
-        <v>232681.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F45">
-        <v>5001.0</v>
+        <v>4324.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -2514,10 +2553,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L45">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M45">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N45">
         <v>0.0</v>
@@ -2531,19 +2570,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B46">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F46">
-        <v>4324.0</v>
+        <v>24257.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -2552,7 +2591,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I46">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J46">
         <v>0.0</v>
@@ -2564,10 +2603,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M46">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="N46">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O46">
         <v>0.0</v>
@@ -2578,19 +2617,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B47">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F47">
-        <v>24257.0</v>
+        <v>31700.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -2599,7 +2638,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I47">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J47">
         <v>0.0</v>
@@ -2611,10 +2650,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M47">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N47">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O47">
         <v>0.0</v>
@@ -2628,13 +2667,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D48">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F48">
         <v>31700.0</v>
@@ -2672,19 +2711,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B49">
-        <v>234030.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F49">
-        <v>31700.0</v>
+        <v>224.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -2705,7 +2744,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N49">
         <v>0.0</v>
@@ -2719,19 +2758,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B50">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F50">
-        <v>224.0</v>
+        <v>1378.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -2752,7 +2791,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M50">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N50">
         <v>0.0</v>
@@ -2766,19 +2805,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B51">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F51">
-        <v>1378.0</v>
+        <v>29898.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -2799,7 +2838,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M51">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N51">
         <v>0.0</v>
@@ -2813,19 +2852,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B52">
-        <v>233921.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F52">
-        <v>29898.0</v>
+        <v>4720.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -2846,7 +2885,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M52">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N52">
         <v>0.0</v>
@@ -2860,19 +2899,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B53">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F53">
-        <v>4720.0</v>
+        <v>1535.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -2907,19 +2946,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B54">
-        <v>234164.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F54">
-        <v>1535.0</v>
+        <v>8653.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -2940,7 +2979,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M54">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N54">
         <v>0.0</v>
@@ -2954,19 +2993,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B55">
-        <v>233949.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F55">
-        <v>8653.0</v>
+        <v>2181.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -2987,7 +3026,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M55">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N55">
         <v>0.0</v>
@@ -3001,19 +3040,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B56">
-        <v>234207.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D56">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F56">
-        <v>2181.0</v>
+        <v>3072.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -3040,53 +3079,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O56">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c s="1" r="A57">
-        <v>2007.0</v>
-      </c>
-      <c s="1" r="B57">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C57">
-        <v>124</v>
-      </c>
-      <c s="1" r="D57">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E57">
-        <v>125</v>
-      </c>
-      <c s="1" r="F57">
-        <v>3072.0</v>
-      </c>
-      <c s="1" r="G57">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H57">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I57">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J57">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K57">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L57">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M57">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N57">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O57">
         <v>0.0</v>
       </c>
     </row>
